--- a/src/main/resources/database/default.xlsx
+++ b/src/main/resources/database/default.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Craft\Documents\Projects\TCC\campo-quimico\src\main\resources\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76064A27-FED8-450F-B78C-692D0733B526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80996B8-C678-4E00-84C4-B6CA5B0FD260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{29C8003B-5778-4769-A18F-77ACF920A148}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="29">
   <si>
     <t>H</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t>SIMBOLO</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -262,7 +268,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,7 +606,7 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI23" sqref="AI23"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,11 +649,11 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -720,31 +726,31 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -810,11 +816,11 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1680,7 +1686,7 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI23" sqref="AI23"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,11 +1729,11 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1800,31 +1806,31 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1890,11 +1896,11 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -2759,7 +2765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADDB7A94-A861-4D02-9A53-730049F6237D}">
   <dimension ref="A1:AI50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AI23" sqref="AI23"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/database/default.xlsx
+++ b/src/main/resources/database/default.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Craft\Documents\Projects\TCC\campo-quimico\src\main\resources\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80996B8-C678-4E00-84C4-B6CA5B0FD260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D242030F-3151-4144-92E7-BC4886C0F581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{29C8003B-5778-4769-A18F-77ACF920A148}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875" xr2:uid="{29C8003B-5778-4769-A18F-77ACF920A148}"/>
   </bookViews>
   <sheets>
     <sheet name="TESTE" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="45">
   <si>
     <t>H</t>
   </si>
@@ -125,6 +125,54 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>ELEMENTO A</t>
+  </si>
+  <si>
+    <t>ELEMENTO B</t>
+  </si>
+  <si>
+    <t>ELEMENTO C</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>ELEMENTO B 2</t>
+  </si>
+  <si>
+    <t>FAZ LIGAÇÃO TRIPLA</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>ELEMENTO Y</t>
+  </si>
+  <si>
+    <t>ELEMENTO Z</t>
+  </si>
+  <si>
+    <t>ELEMENTO V1</t>
+  </si>
+  <si>
+    <t>ELEMENTO V2</t>
   </si>
 </sst>
 </file>
@@ -234,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -256,6 +304,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -268,7 +318,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE765A9-04B5-4825-A496-2D36B425FA98}">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,32 +668,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="Q1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="Q1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="12"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="14"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -707,13 +757,13 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>20</v>
@@ -732,19 +782,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>16</v>
@@ -759,13 +809,13 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>18</v>
@@ -795,20 +845,18 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
     </row>
@@ -816,11 +864,11 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -833,16 +881,16 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U6" s="1" t="s">
         <v>25</v>
@@ -1100,23 +1148,23 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -1686,7 +1734,7 @@
   <dimension ref="A1:W50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1698,42 +1746,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="Q1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="Q1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="12"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="14"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1787,13 +1835,13 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>20</v>
@@ -1806,31 +1854,31 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1839,13 +1887,13 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>18</v>
@@ -1875,13 +1923,13 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>19</v>
@@ -1896,16 +1944,16 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1913,13 +1961,13 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>18</v>
@@ -2180,23 +2228,23 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -2765,8 +2813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADDB7A94-A861-4D02-9A53-730049F6237D}">
   <dimension ref="A1:AI50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AI23" sqref="AI23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2778,32 +2826,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="Q1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="Q1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="12"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="14"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -3260,23 +3308,23 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -3421,7 +3469,7 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="AI23" s="13"/>
+      <c r="AI23" s="9"/>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>

--- a/src/main/resources/database/default.xlsx
+++ b/src/main/resources/database/default.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Craft\Documents\Projects\TCC\campo-quimico\src\main\resources\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D242030F-3151-4144-92E7-BC4886C0F581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E4970F-AF46-4AF9-8016-CF219A2BD433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7875" xr2:uid="{29C8003B-5778-4769-A18F-77ACF920A148}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{29C8003B-5778-4769-A18F-77ACF920A148}"/>
   </bookViews>
   <sheets>
     <sheet name="TESTE" sheetId="1" r:id="rId1"/>
     <sheet name="ALCOOL" sheetId="3" r:id="rId2"/>
-    <sheet name="COBRE" sheetId="4" r:id="rId3"/>
+    <sheet name="MOLECULA TESTE" sheetId="5" r:id="rId3"/>
+    <sheet name="COBRE" sheetId="4" r:id="rId4"/>
+    <sheet name="PADRAO" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="52">
   <si>
     <t>H</t>
   </si>
@@ -174,6 +176,27 @@
   <si>
     <t>ELEMENTO V2</t>
   </si>
+  <si>
+    <t>ASD</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>LIGAÇÃO SIMPLES</t>
+  </si>
+  <si>
+    <t>vira</t>
+  </si>
+  <si>
+    <t>GLOSSÁRIO DE LIGAÇÕES (HORIZONTAL</t>
+  </si>
 </sst>
 </file>
 
@@ -282,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -306,6 +329,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,7 +342,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AE765A9-04B5-4825-A496-2D36B425FA98}">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,32 +710,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="Q1" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="Q1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="15"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -853,7 +895,7 @@
       <c r="S5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="11" t="s">
         <v>39</v>
       </c>
       <c r="U5" s="1"/>
@@ -1147,24 +1189,22 @@
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
+    <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -1176,9 +1216,7 @@
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1201,9 +1239,7 @@
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1227,9 +1263,7 @@
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="3"/>
       <c r="F21" s="6"/>
@@ -1253,9 +1287,7 @@
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1277,21 +1309,11 @@
       <c r="W22" s="1"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="1"/>
@@ -1313,9 +1335,7 @@
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="C24" s="3"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1337,21 +1357,11 @@
       <c r="W24" s="1"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1373,9 +1383,7 @@
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1399,9 +1407,7 @@
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1733,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8CF966-CA38-4C10-956F-C158E6FC3733}">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,32 +1752,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="Q1" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="Q1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="15"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -2228,23 +2234,23 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -2806,62 +2812,57 @@
     <mergeCell ref="A18:O18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADDB7A94-A861-4D02-9A53-730049F6237D}">
-  <dimension ref="A1:AI50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61E748E-AFBF-4AC7-A944-472B65BC4AE0}">
+  <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="15" width="3.7109375" customWidth="1"/>
-    <col min="17" max="17" width="6.85546875" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" customWidth="1"/>
-    <col min="20" max="25" width="30.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="Q1" s="12" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="Q1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="15"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2915,13 +2916,13 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="Q3" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>20</v>
@@ -2934,31 +2935,31 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2967,13 +2968,13 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>18</v>
@@ -3003,13 +3004,13 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="Q5" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>19</v>
@@ -3024,16 +3025,16 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -3041,13 +3042,13 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>18</v>
@@ -3298,6 +3299,997 @@
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
     </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="A18:O18"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADDB7A94-A861-4D02-9A53-730049F6237D}">
+  <dimension ref="A1:AI50"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="15" width="3.7109375" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" customWidth="1"/>
+    <col min="20" max="25" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="Q1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="15"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="Q2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="Q3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="Q4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="Q6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="Q7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V7" s="1">
+        <v>3</v>
+      </c>
+      <c r="W7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="Q8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -3308,23 +4300,23 @@
       <c r="W17" s="1"/>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -3887,5 +4879,1040 @@
     <mergeCell ref="A18:O18"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E00DDDC5-97B5-4D0B-ADE5-3C406282979E}">
+  <dimension ref="A1:AI50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="15" width="3.7109375" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" customWidth="1"/>
+    <col min="20" max="25" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="Q1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="15"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="Q2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>50</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="AI23" s="9"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>50</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I25" t="s">
+        <v>50</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+    </row>
+    <row r="49" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+    </row>
+    <row r="50" spans="17:23" x14ac:dyDescent="0.25">
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A23:O23"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="A18:O18"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A19:G19"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>